--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,41 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>目標PER</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>目標株価②</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>上昇率②</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>予想PER</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>来季増益率</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>PSR</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>利益率</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>40%ルール</t>
         </is>
       </c>
@@ -518,12 +553,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3,456.0円</t>
+          <t>3,385.0円</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10.4倍</t>
+          <t>10.1倍</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -568,17 +603,48 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>56,384,597</t>
+          <t>55,226,233</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>266864</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.721759259259259</v>
+        <v>259166</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>665.6307237813885%</t>
+        </is>
       </c>
       <c r="O2" t="n">
-        <v>0.2507553975112426</v>
+        <v>43.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>111364.4</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>228.99379615952734%</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>13.19173811379579</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>79.8%</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>1.486402273029085</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>25.08%</t>
+        </is>
       </c>
     </row>
   </sheetData>
